--- a/console/Networking/launchExcel/components/launch_list_item.xlsx
+++ b/console/Networking/launchExcel/components/launch_list_item.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/launchExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71A96F-67EE-4F49-8D74-2BA221029D3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -289,9 +295,6 @@
     <t>- Create an availability group</t>
   </si>
   <si>
-    <t>'The current instance template has been associated with Availability Group'</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -311,13 +314,17 @@
   </si>
   <si>
     <t>'OK'</t>
+  </si>
+  <si>
+    <t>The current instance template has been associated with Availability Groups'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,13 +367,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,21 +717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="38">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -743,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -754,18 +764,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="38">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -773,10 +783,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -784,10 +794,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -795,10 +805,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -806,10 +816,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -817,10 +827,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -828,10 +838,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -839,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
